--- a/biology/Zoologie/Henry_Weed_Fowler/Henry_Weed_Fowler.xlsx
+++ b/biology/Zoologie/Henry_Weed_Fowler/Henry_Weed_Fowler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Weed Fowler est un zoologiste américain, né le 23 mars 1878 à Holmesburg en Pennsylvanie et mort le 21 juin 1965.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie à Stanford sous la direction de David Starr Jordan (1851-1931). Il passe toute sa vie professionnelle dans l’Académie des sciences naturelles de Philadelphie où il travaille comme assistant de 1903 à 1922, conservateur associé pour les vertébrés de 1922 à 1934, conservateur pour les poissons et les reptiles de 1934 à 1940 et conservateur des poissons de 1940 à 1965.
 Ses publications portent sur les crustacés, les oiseaux, les reptiles et les amphibiens, mais l’essentiel de ses travaux portent sur les poissons. En 1927, il participe à la fondation de l’American Society of Ichthyologists and Herpetologists où il assure la fonction de trésorier durant sept ans et qu’il dirige en 1927.
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1958 : Some new taxonomic names of fishlike vertebrates. Not. Nat. (Phila.) N° 310 : 1-16.</t>
         </is>
